--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mphasis Practice Eclipse\RLLProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA4AD88-42D3-49D4-A451-9E72B8AA4B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F9CBA-02EE-493C-99DD-B501594EBFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="380" windowWidth="9590" windowHeight="9700" xr2:uid="{E2A2965C-2A2B-4CFD-BD41-E742AC17B3BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2A2965C-2A2B-4CFD-BD41-E742AC17B3BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
